--- a/docs/argo-sub-notif.xlsx
+++ b/docs/argo-sub-notif.xlsx
@@ -649,7 +649,7 @@
     <t>The uri of payload when sending notifications to a subscriber.</t>
   </si>
   <si>
-    <t>The Argonaut Scheduling Schedule Notification Profile defines the payload when sending notifications to a subscriber described in [Use Case 3 Prefetching Open Slots](patient-scheduling.html#use-case-3-prefetching-open-slots).   The actual notification is triggered by a Slot instance defined in  `criteria` .  The Slot's `schedule' element identifies the Schedule resource instance that populates the payload.</t>
+    <t>The Argonaut Scheduling Schedule Notification Profile defines the payload when sending notifications to a subscriber described in Use Case 3 Prefetching Open Slots.   The actual notification is triggered by a Slot instance defined in  `criteria` .  The Slot's `schedule' element identifies the Schedule resource instance that populates the payload.</t>
   </si>
   <si>
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.org/guides/argonaut-scheduling/StructureDefinition/argo-sched-notif"/&gt;</t>
